--- a/output/89a92882-15ad-4da9-9afc-1d1937342c64/89a92882-15ad-4da9-9afc-1d1937342c64_notes_cropped_df.xlsx
+++ b/output/89a92882-15ad-4da9-9afc-1d1937342c64/89a92882-15ad-4da9-9afc-1d1937342c64_notes_cropped_df.xlsx
@@ -7,32 +7,35 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="9b316d08-5ae0-39fe-a" sheetId="1" r:id="rId1"/>
-    <sheet name="f985ef4b-2e5e-3fbe-9" sheetId="2" r:id="rId2"/>
-    <sheet name="328c7752-13d9-3808-8" sheetId="3" r:id="rId3"/>
-    <sheet name="4b16b375-a5e0-36e0-9" sheetId="4" r:id="rId4"/>
-    <sheet name="21e918f8-5d24-3b2f-8" sheetId="5" r:id="rId5"/>
-    <sheet name="5833a5d1-c09c-3154-8" sheetId="6" r:id="rId6"/>
-    <sheet name="7508670f-8802-3425-8" sheetId="7" r:id="rId7"/>
-    <sheet name="385d71fd-e98a-3fc9-9" sheetId="8" r:id="rId8"/>
-    <sheet name="690bde78-8180-3e6b-8" sheetId="9" r:id="rId9"/>
-    <sheet name="14ab6223-1d71-31ca-8" sheetId="10" r:id="rId10"/>
-    <sheet name="a129ee86-9aee-3d8c-b" sheetId="11" r:id="rId11"/>
-    <sheet name="69680d68-0499-3b0a-b" sheetId="12" r:id="rId12"/>
-    <sheet name="e5adf9da-1ce8-3e27-a" sheetId="13" r:id="rId13"/>
-    <sheet name="f55109bd-d498-3d16-a" sheetId="14" r:id="rId14"/>
-    <sheet name="6ad081c9-6281-3b76-b" sheetId="15" r:id="rId15"/>
-    <sheet name="7fdc5704-8f0c-3783-a" sheetId="16" r:id="rId16"/>
-    <sheet name="56aa5dbe-5af6-3af8-8" sheetId="17" r:id="rId17"/>
-    <sheet name="a43afe4a-0070-3dde-a" sheetId="18" r:id="rId18"/>
-    <sheet name="959cff20-072d-31e5-8" sheetId="19" r:id="rId19"/>
+    <sheet name="7__9b316d08-5ae0-39f" sheetId="1" r:id="rId1"/>
+    <sheet name="7__f985ef4b-2e5e-3fb" sheetId="2" r:id="rId2"/>
+    <sheet name="8__328c7752-13d9-380" sheetId="3" r:id="rId3"/>
+    <sheet name="11__4b16b375-a5e0-36" sheetId="4" r:id="rId4"/>
+    <sheet name="12__21e918f8-5d24-3b" sheetId="5" r:id="rId5"/>
+    <sheet name="13__5833a5d1-c09c-31" sheetId="6" r:id="rId6"/>
+    <sheet name="13__7508670f-8802-34" sheetId="7" r:id="rId7"/>
+    <sheet name="14__385d71fd-e98a-3f" sheetId="8" r:id="rId8"/>
+    <sheet name="15__690bde78-8180-3e" sheetId="9" r:id="rId9"/>
+    <sheet name="16__690bde78-8180-3e" sheetId="10" r:id="rId10"/>
+    <sheet name="17__14ab6223-1d71-31" sheetId="11" r:id="rId11"/>
+    <sheet name="18__a129ee86-9aee-3d" sheetId="12" r:id="rId12"/>
+    <sheet name="20__69680d68-0499-3b" sheetId="13" r:id="rId13"/>
+    <sheet name="21__e5adf9da-1ce8-3e" sheetId="14" r:id="rId14"/>
+    <sheet name="22__f55109bd-d498-3d" sheetId="15" r:id="rId15"/>
+    <sheet name="23__f55109bd-d498-3d" sheetId="16" r:id="rId16"/>
+    <sheet name="24__f55109bd-d498-3d" sheetId="17" r:id="rId17"/>
+    <sheet name="25__6ad081c9-6281-3b" sheetId="18" r:id="rId18"/>
+    <sheet name="26__7fdc5704-8f0c-37" sheetId="19" r:id="rId19"/>
+    <sheet name="27__56aa5dbe-5af6-3a" sheetId="20" r:id="rId20"/>
+    <sheet name="4__a43afe4a-0070-3dd" sheetId="21" r:id="rId21"/>
+    <sheet name="6__959cff20-072d-31e" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="275">
   <si>
     <t>Cash at bank</t>
   </si>
@@ -385,6 +388,12 @@
     <t>861683</t>
   </si>
   <si>
+    <t>Goodwill - on consolidation</t>
+  </si>
+  <si>
+    <t>1627273</t>
+  </si>
+  <si>
     <t>Note 16. Non-current assets - deferred tax</t>
   </si>
   <si>
@@ -650,6 +659,27 @@
   </si>
   <si>
     <t>3656585</t>
+  </si>
+  <si>
+    <t>Note 22. Current liabilities - contract liabilities</t>
+  </si>
+  <si>
+    <t>Contract liabilities - revenue received in advance</t>
+  </si>
+  <si>
+    <t>1784939</t>
+  </si>
+  <si>
+    <t>831867</t>
+  </si>
+  <si>
+    <t>Note 23. Non-current liabilities - borrowings</t>
+  </si>
+  <si>
+    <t>Borrowings</t>
+  </si>
+  <si>
+    <t>4500000</t>
   </si>
   <si>
     <t>Note 24. Non-current liabilities - lease liabilities</t>
@@ -1257,6 +1287,253 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1289,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1331,84 +1608,84 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1461,43 +1738,43 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1547,32 +1824,32 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1857,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -1601,7 +2003,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1630,71 +2032,71 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +2104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1736,10 +2138,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1750,7 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1802,10 +2204,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="C4" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1813,352 +2215,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F5">
         <v>5014754</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2202,6 +2274,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
@@ -2917,7 +3319,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2935,226 +3337,35 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>117</v>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
